--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_212.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_212.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>WoodSpring Suites New Orleans Airport</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Kenner</t>
   </si>
   <si>
@@ -61,78 +139,6 @@
   </si>
   <si>
     <t>23</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -503,34 +509,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>65854</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70062</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -555,76 +580,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E2" t="n">
+        <v>70062</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_212.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_212.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="245">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,618 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r613311626-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40247</t>
+  </si>
+  <si>
+    <t>11741467</t>
+  </si>
+  <si>
+    <t>613311626</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Disappointing - Look at other options</t>
+  </si>
+  <si>
+    <t>It has a lower rate than some due to only providing room service every 2 weeks. Bed was comfortable but room was very noisy. There is no carpet in the rooms which makes everything louder. Fairly new hotel but I would look for other options next time. I saw some pets but I think there is a pet fee.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites New Orleans Airport, responded to this reviewResponded September 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2018</t>
+  </si>
+  <si>
+    <t>It has a lower rate than some due to only providing room service every 2 weeks. Bed was comfortable but room was very noisy. There is no carpet in the rooms which makes everything louder. Fairly new hotel but I would look for other options next time. I saw some pets but I think there is a pet fee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r589019746-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>589019746</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Bad business plan</t>
+  </si>
+  <si>
+    <t>I'm on a monthly rate that was a pretty good deal.The weekly room service is not very good, but the big item is they over-book the rooms and put all the longer term monthly tenants on a stand-by list, not knowing if they will have to leave at the end of month.This is a terrible way to treat your longer term customers. I've traveled a lot in my business and have never been jerked around like this. Bad business plan, Disappointed !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites New Orleans Airport, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>I'm on a monthly rate that was a pretty good deal.The weekly room service is not very good, but the big item is they over-book the rooms and put all the longer term monthly tenants on a stand-by list, not knowing if they will have to leave at the end of month.This is a terrible way to treat your longer term customers. I've traveled a lot in my business and have never been jerked around like this. Bad business plan, Disappointed !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r575040196-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>575040196</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a typical hotel </t>
+  </si>
+  <si>
+    <t>Ok so this was a decent place to stay HOWEVER the room cleaning is different depending on your room number your room may not be cleaned during your stay. You can pay $25 for a cleaning weekly rate. I booked a kitchenette however did not have cookware or dishes, after a few days I found out I needed to request the stuff for the kitchen which was annoying. The location was great the price is a bit over priced for the lack of amenities you don’t get. It’s as if your in an apartment building that your can’t cook in. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites New Orleans Airport, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Ok so this was a decent place to stay HOWEVER the room cleaning is different depending on your room number your room may not be cleaned during your stay. You can pay $25 for a cleaning weekly rate. I booked a kitchenette however did not have cookware or dishes, after a few days I found out I needed to request the stuff for the kitchen which was annoying. The location was great the price is a bit over priced for the lack of amenities you don’t get. It’s as if your in an apartment building that your can’t cook in. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r571125984-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>571125984</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic hotel that’s clean and quiet </t>
+  </si>
+  <si>
+    <t>I stay here often. Hotel is newer, clean, and has the basics. James and Greg are very nice at front desk. It’s mostly work crews and folks needing M-F hotel accommodations. Kitchen has stove fridge and microwave. Bathroom is clean w large shower. Convenient to airport, new Chik Fil A and circle K.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites New Orleans Airport, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>I stay here often. Hotel is newer, clean, and has the basics. James and Greg are very nice at front desk. It’s mostly work crews and folks needing M-F hotel accommodations. Kitchen has stove fridge and microwave. Bathroom is clean w large shower. Convenient to airport, new Chik Fil A and circle K.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r569201160-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>569201160</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Nice Staff, Clean Rooms</t>
+  </si>
+  <si>
+    <t>The WoodSpring Suites hotel at the New Orleans Airport, is a pretty new and definitely clean hotel. Their is a kitchen in the rooms and laundry services available as well. The staff I interacted with were very kind. Most of the occupants seem to be more longer term residents.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites New Orleans Airport, responded to this reviewResponded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2018</t>
+  </si>
+  <si>
+    <t>The WoodSpring Suites hotel at the New Orleans Airport, is a pretty new and definitely clean hotel. Their is a kitchen in the rooms and laundry services available as well. The staff I interacted with were very kind. Most of the occupants seem to be more longer term residents.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r566306712-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>566306712</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Perfect Vacation</t>
+  </si>
+  <si>
+    <t>I wasn’t too sure how our stay here was going to be since I had never heard of the location. But from when we first walked in until the moment we left my friends and I were treated with only respect. The location is like brand new and the rooms were very spacious and comfortable. If we needed anything for the room the front desk had no problem bringing it to us within minutes. I would 100% recommend this location to anyone else traveling to the New Orleans area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations Corporate Liaison at WoodSpring Suites New Orleans Airport, responded to this reviewResponded March 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2018</t>
+  </si>
+  <si>
+    <t>I wasn’t too sure how our stay here was going to be since I had never heard of the location. But from when we first walked in until the moment we left my friends and I were treated with only respect. The location is like brand new and the rooms were very spacious and comfortable. If we needed anything for the room the front desk had no problem bringing it to us within minutes. I would 100% recommend this location to anyone else traveling to the New Orleans area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r563687861-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>563687861</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Clean, Modern, Just the Basics with Sound Issues. Self Catering.</t>
+  </si>
+  <si>
+    <t>WoodSpring Suites is conveniently located near the New Orleans airport.  It is a self-catering hotel appropriate for a short or long term visit.  It is modern, with a very good bed, all the basics you need (clock, flat screen Wi-Fi, phone, cable, and a kitchen with microwave, stove top and mini fridge.  Modern bathroom.  The layout uses every foot of space.  It was very clean and simple.  Free and ample parking, with lots of fast food and restaurants nearby.The details that may put some off.  Noise.  Very bad sound management.  Can hear noise from all walls and ceilings.  Airplanes were expected. Could hear the conversations from the room behind me, the tv in other room, and the walking above me. I turned on the fan to the AC to create white noise and it moderately helped.  If noise sensitive, definitely not the place for you. No daily bedding/towel service.  You can exchange them at the desk if needed.  For long term stays, weekly service occurs.So, would I stay here again.  Probably not, unless it was a last second emergency.  My sleep is more valuable than saving $20 over other options.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations Corporate Liaison at WoodSpring Suites New Orleans Airport, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>WoodSpring Suites is conveniently located near the New Orleans airport.  It is a self-catering hotel appropriate for a short or long term visit.  It is modern, with a very good bed, all the basics you need (clock, flat screen Wi-Fi, phone, cable, and a kitchen with microwave, stove top and mini fridge.  Modern bathroom.  The layout uses every foot of space.  It was very clean and simple.  Free and ample parking, with lots of fast food and restaurants nearby.The details that may put some off.  Noise.  Very bad sound management.  Can hear noise from all walls and ceilings.  Airplanes were expected. Could hear the conversations from the room behind me, the tv in other room, and the walking above me. I turned on the fan to the AC to create white noise and it moderately helped.  If noise sensitive, definitely not the place for you. No daily bedding/towel service.  You can exchange them at the desk if needed.  For long term stays, weekly service occurs.So, would I stay here again.  Probably not, unless it was a last second emergency.  My sleep is more valuable than saving $20 over other options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r545525640-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>545525640</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Mrs Denika,  the hotel clerk . was  so pleasant and informative ,she assisted in making our stay a good one. The room was clean.  What also impressed me was the similar way she spoke and treated the other tenants waiting to check in and out, Also the location was great for our visit.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r543251671-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>543251671</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>Clean, modern, &amp; affordable</t>
+  </si>
+  <si>
+    <t>I needed a hotel to sleep in after getting off a late flight. I didn't want to spend a lot of money because I only needed it for one night before heading into the city, but I still didn't want a raggedy hotel. Woodspring fit what I was looking for. Large room, kitchen area, small couch (long enough for my toddler to sleep on), and clean/modern looking room. There is a chic fil a right outside, perfect for breakfast. I was also able to walk to the gas station for small items I needed. The only con that I have is customer service. Late night check in was really slow and they had to call someone that is off-site. I think it would make sense for the hotel to let customers know  that, so we could of alerted them in advance or when leaving the airport. Took about 20 min to check-in. In the morning, the front desk clerk knocked on our door like she was an R.A. in a dorm asking us when we were checking out. Girl, I'm checking out at check-out time tf. That was odd and very annoying because she was also rude about it.Other than that, it was good stay. About at $20 uber ride to the Quarter.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a hotel to sleep in after getting off a late flight. I didn't want to spend a lot of money because I only needed it for one night before heading into the city, but I still didn't want a raggedy hotel. Woodspring fit what I was looking for. Large room, kitchen area, small couch (long enough for my toddler to sleep on), and clean/modern looking room. There is a chic fil a right outside, perfect for breakfast. I was also able to walk to the gas station for small items I needed. The only con that I have is customer service. Late night check in was really slow and they had to call someone that is off-site. I think it would make sense for the hotel to let customers know  that, so we could of alerted them in advance or when leaving the airport. Took about 20 min to check-in. In the morning, the front desk clerk knocked on our door like she was an R.A. in a dorm asking us when we were checking out. Girl, I'm checking out at check-out time tf. That was odd and very annoying because she was also rude about it.Other than that, it was good stay. About at $20 uber ride to the Quarter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r539975894-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>539975894</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Not a great Place</t>
+  </si>
+  <si>
+    <t>I had stayed for a week, room was reasonable and very cheap, but lot of things I don't like, the front desk is not great and are not available all time, even during the check in I had to wait for 20 mins to see the staff.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r528184078-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>528184078</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Excellent Property/Exceptional Service</t>
+  </si>
+  <si>
+    <t>I would recommend this hotel to anybody. The hotel is clean and very well maintained. It is quite without being uncomfortable. The entire staff is exceptional but I would like to send a special shot out to Mr. Robert. I believe his title is Head of Maintenance and Security but he wear many more hats than that. He has really gone beyond the call of duty to make my stay here comfortable and safe. I appreciate him and everyone at this hotel. 4 stars all day. No property is perfect but if there are any issues that can arise, they will take care of you immediately. Love it here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r526796457-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>526796457</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Employees who care about guest needs</t>
+  </si>
+  <si>
+    <t>All of the staff that I have met or come in contact with at this property is very professional. courteous, well trained and just kind human beings.  Special shot out to Greg (Guest Services/Maintenance) and Robert (Head of Maintenance). They both seem to always go over and beyond the call of duty for whatever I need. And I really appreciate the excellent customer care is what I would call it. Even when I need something may not be pertaining to their specific job title, if they will make sure I am still well accommodated. 5 stars each :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r522007215-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>522007215</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>As long as you know what you're getting -- Great Place!</t>
+  </si>
+  <si>
+    <t>Just remember: CHEAP &amp; CLEAN.  That's what you are getting.  Which is fine, as long as you understand a few things.  No front desk service. No water pressure. No amenities like ironing board, hairdryer, etc.  Kitchen has absolutely nothing in the cabinets.  Really, for the price, it's a great place.  My only REAL complaints would be the pillows!  They were HORRIBLE.  Only got 2 still too flat after putting them together.  And, the water pressure was bad...as in non-existent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r521375247-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>521375247</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Decent Value For Extended Stay</t>
+  </si>
+  <si>
+    <t>The negative reviews seem to be from people who don't know what to expect from an extended stay - you don't get the same amenities that you get at a regular motel. That being said, I was surprised that there were no basic kitchen implements, such as a few plates, silverware and a pan or pot. An iron was available at the front desk. "Suites" is a misnomer for this property. Our room was small and didn't have an easy chair. There was also no kitchen table or eat-at counter - just a very small counter desk. Lots of large and open clothes storage areas. It's a new property, so in very good shape overall, but our phone was broken and not replaced until 3 days after we reported it when we told a maintenance man in the hall. We also had a minor problem with fire ants, but he sprayed immediately. The location is great - an easy 20 minute drive into New Orleans and MANY restaurants within walking distance. There was a Chik-Fil-A right in the parking lot and a particularly charming Italian restaurant at the closest intersection. We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>The negative reviews seem to be from people who don't know what to expect from an extended stay - you don't get the same amenities that you get at a regular motel. That being said, I was surprised that there were no basic kitchen implements, such as a few plates, silverware and a pan or pot. An iron was available at the front desk. "Suites" is a misnomer for this property. Our room was small and didn't have an easy chair. There was also no kitchen table or eat-at counter - just a very small counter desk. Lots of large and open clothes storage areas. It's a new property, so in very good shape overall, but our phone was broken and not replaced until 3 days after we reported it when we told a maintenance man in the hall. We also had a minor problem with fire ants, but he sprayed immediately. The location is great - an easy 20 minute drive into New Orleans and MANY restaurants within walking distance. There was a Chik-Fil-A right in the parking lot and a particularly charming Italian restaurant at the closest intersection. We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r511312553-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>511312553</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Only needed one night, but so great that I wanted to stay longer</t>
+  </si>
+  <si>
+    <t>Decided to crash at this hotel for the night after a 2 hour and 30 minute flight from DC, and before a 2 hour drive to Mobile, Ala. It was my first time staying with the brand. I was pleasantly surprised.The room was large, spotless, modern, updated and complete with every amenity you would ever want, including fridge, stove and microwave. The staff was extremely friendly and professional. An added bonus is a security system that only allows registered guest through the front doors after hours and pass the lobby to the guest rooms during normal business hours.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r506415206-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>506415206</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Last resort</t>
+  </si>
+  <si>
+    <t>Pros: location, clean rooms, price, and the American Pie Diner next door.Cons: Front desk staff (when they were present) weren't helpful at all.  It appeared as if we were bothering them just to check in. The hotel has zero amenities, not even ice machines. When we asked about this, we were told we had ice trays in the room in the freezer.  Great, but this doesn't do you any good at check-in if housekeeping staff haven't filled them.  Would not stay here again.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r486937280-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>486937280</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>This has NO amenities! Not an average hotel...</t>
+  </si>
+  <si>
+    <t>This hotel has no housekeeping services, no breakfast, no hairdryers, no toiletries, no Kleenex, no dishes or pans in the kitchen and no one at the desk at night.  I paid over $100. a night and was very disappointed to have no amenities.  It is 25 minutes from downtown and NO extras.It was clean and non-smoking.  If you are staying for over a week and want to spend money on supplies at Walmart then this might be for you.  I would not stay there again.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r484203171-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>484203171</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t>New Orleans Airport Stay</t>
+  </si>
+  <si>
+    <t>My experience at the WoodSpring Hotel, wasn't that bad. (Yes) I  would stay here again. The price was right during Jazz fest. Front desk people very friendly. Close enough to places I wanted to visit and fifteen to twenty minute drive to into New Orleans. Best part of this place. No one hitting you up for donations.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r480412314-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>480412314</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>New, Clean and Nice!</t>
+  </si>
+  <si>
+    <t>Visited during Mardi Gras 2017.  Usually, we stay next door at Extended Stay America but stayed at Woodspring thanks to Google search and pricing!  The hotel is brand new and the room we stayed in we were literally the first ones to ever occupy it.  Lobby, hallways, parking lot and elevator were clean.  It's an extended stay, no I knew what to expect.  The rooms are just as the pictures displayed.  Our room was a double room with a Comfy bed, refrigerator, microwave, flat screen TV and stove top.  The bathroom was very nice I might add.  Also, ChickFiLa and Sonic in the parking lot!!  Too good to be true huh?  The cons:- Iron and ironing board are at the desk as a checkout per use base.- No mirror in the room, only bathroom. (went to Walmart, bout a door mirror).- Satellite TV signal was poor with perfect weather outside- No continental breakfast ( too be expected).MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Visited during Mardi Gras 2017.  Usually, we stay next door at Extended Stay America but stayed at Woodspring thanks to Google search and pricing!  The hotel is brand new and the room we stayed in we were literally the first ones to ever occupy it.  Lobby, hallways, parking lot and elevator were clean.  It's an extended stay, no I knew what to expect.  The rooms are just as the pictures displayed.  Our room was a double room with a Comfy bed, refrigerator, microwave, flat screen TV and stove top.  The bathroom was very nice I might add.  Also, ChickFiLa and Sonic in the parking lot!!  Too good to be true huh?  The cons:- Iron and ironing board are at the desk as a checkout per use base.- No mirror in the room, only bathroom. (went to Walmart, bout a door mirror).- Satellite TV signal was poor with perfect weather outside- No continental breakfast ( too be expected).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r476829033-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>476829033</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay</t>
+  </si>
+  <si>
+    <t>For the price I wasn't getting my hopes up but I was very surprised. The hotel is brand new and extremely clean. Spacious rooms with a cooktop refrigerator and microwave. New TV, furniture, appliances and the A/c worked great. Absolutely cannot beat the value of this hotel I've stayed in some $200-300 hotels that don't come close to this room quality. The amenities down stairs are minimum but plenty of things in the area if you have transportation.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r473015319-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>473015319</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Ok for a one night stay</t>
+  </si>
+  <si>
+    <t>This hotel you can hear a pin drop so if your a light sleeper DO NOT STAY HERE! We stayed for 3 days and got no rest at all but the price was right so we didn't leave! Rarely was there an attendant at the desk so you had to use a phone to get a hold of someone, and even when I did they were no help!</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r472706673-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>472706673</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Not to shabby for the price.</t>
+  </si>
+  <si>
+    <t>Staff were friendly. The place was really secure and I like that. One downfall was there was no breakfast, but there is coffee. One good thing is that are places close to go get something if you need food. The place needed a good vacuuming and sweeping in the hallways, stairs/elevator. All in all it was a good safe place if you needed to spend more than a few nights. I would recommend this place and its a reasonable price. We took an Urber to get to downtown New Orleans. People are really friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r471752850-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>471752850</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>New Orleans Brief Stay</t>
+  </si>
+  <si>
+    <t>Wife made reservations, newer motel close to airport, clean not upscale but value. Service slow but for a budget motel with no amenities and efficiency kitchen and 10 miles from Bourbon Street is adequate. No negatives but won't return</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r471601106-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>471601106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean hotel close to the interstate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walls were thin, I could hear the guys next door. I had to put my white noise in to go to sleep. The floors aren't carpet, so you can hear the people upstairs walking and dropping stuff. Tip: get a room on the 4th floor. No breakfast, but there was coffee. You could easily walk to the Chik-fil-A in front of the hotel, so you don't really need that yuck hotel breakfast anyway. Clean, a/c was cold. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r468892429-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>468892429</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>A clean place to rest your head but that's it.</t>
+  </si>
+  <si>
+    <t>Woodspring Suites was the right price and the right location. It is close to the airport(5min) and it was easy to jump on I-10 (25-45min to Super Dome/French Quarter). The hotel was clean but I feel like only because it's brand new. I stayed for 4 nights and they do not do housekeeping during your stay. Also, if you want fresh towels you have to bring your dirty one downstairs to get new ones. If you're traveling solo like I was this may not bother you. You could here the airport noise but I live next to an airfield so I'm used to it. If you're a light sleeper maybe not. As far as room to room noise I didn't hear anything. The bed was super comfortable. There was a full size fridge/freezer a small flat top electric range and a microwave. I bought a small amount of food and it saved me big bucks. It is New Orleans so enjoy the local cuisine as well. The hotel doesn't offer breakfast(at all). They advertise complimentary coffee from 7-11 a.m. But the first morning at 7:20 there wasn't any. I'm a coffee drinker and most people that are visiting NOLA need a good cup in the morning if you catch my drift. The following mornings coffee was available but it is machine syrup coffee. That doesn't work for me. There is a Starbucks right down the street. The facility is non...Woodspring Suites was the right price and the right location. It is close to the airport(5min) and it was easy to jump on I-10 (25-45min to Super Dome/French Quarter). The hotel was clean but I feel like only because it's brand new. I stayed for 4 nights and they do not do housekeeping during your stay. Also, if you want fresh towels you have to bring your dirty one downstairs to get new ones. If you're traveling solo like I was this may not bother you. You could here the airport noise but I live next to an airfield so I'm used to it. If you're a light sleeper maybe not. As far as room to room noise I didn't hear anything. The bed was super comfortable. There was a full size fridge/freezer a small flat top electric range and a microwave. I bought a small amount of food and it saved me big bucks. It is New Orleans so enjoy the local cuisine as well. The hotel doesn't offer breakfast(at all). They advertise complimentary coffee from 7-11 a.m. But the first morning at 7:20 there wasn't any. I'm a coffee drinker and most people that are visiting NOLA need a good cup in the morning if you catch my drift. The following mornings coffee was available but it is machine syrup coffee. That doesn't work for me. There is a Starbucks right down the street. The facility is non smoking. I'm a smoker but don't like it in my hotel or my home. I was unable to check in early. My room was a single  king, it wasn't big but it was just me. Flat screen tv, free wifi, and alarm clock. Shower pressure and water temp where really good. In summary, good location, good price, clean, comfortable. Amenities: None (at all)MoreShow less</t>
+  </si>
+  <si>
+    <t>Woodspring Suites was the right price and the right location. It is close to the airport(5min) and it was easy to jump on I-10 (25-45min to Super Dome/French Quarter). The hotel was clean but I feel like only because it's brand new. I stayed for 4 nights and they do not do housekeeping during your stay. Also, if you want fresh towels you have to bring your dirty one downstairs to get new ones. If you're traveling solo like I was this may not bother you. You could here the airport noise but I live next to an airfield so I'm used to it. If you're a light sleeper maybe not. As far as room to room noise I didn't hear anything. The bed was super comfortable. There was a full size fridge/freezer a small flat top electric range and a microwave. I bought a small amount of food and it saved me big bucks. It is New Orleans so enjoy the local cuisine as well. The hotel doesn't offer breakfast(at all). They advertise complimentary coffee from 7-11 a.m. But the first morning at 7:20 there wasn't any. I'm a coffee drinker and most people that are visiting NOLA need a good cup in the morning if you catch my drift. The following mornings coffee was available but it is machine syrup coffee. That doesn't work for me. There is a Starbucks right down the street. The facility is non...Woodspring Suites was the right price and the right location. It is close to the airport(5min) and it was easy to jump on I-10 (25-45min to Super Dome/French Quarter). The hotel was clean but I feel like only because it's brand new. I stayed for 4 nights and they do not do housekeeping during your stay. Also, if you want fresh towels you have to bring your dirty one downstairs to get new ones. If you're traveling solo like I was this may not bother you. You could here the airport noise but I live next to an airfield so I'm used to it. If you're a light sleeper maybe not. As far as room to room noise I didn't hear anything. The bed was super comfortable. There was a full size fridge/freezer a small flat top electric range and a microwave. I bought a small amount of food and it saved me big bucks. It is New Orleans so enjoy the local cuisine as well. The hotel doesn't offer breakfast(at all). They advertise complimentary coffee from 7-11 a.m. But the first morning at 7:20 there wasn't any. I'm a coffee drinker and most people that are visiting NOLA need a good cup in the morning if you catch my drift. The following mornings coffee was available but it is machine syrup coffee. That doesn't work for me. There is a Starbucks right down the street. The facility is non smoking. I'm a smoker but don't like it in my hotel or my home. I was unable to check in early. My room was a single  king, it wasn't big but it was just me. Flat screen tv, free wifi, and alarm clock. Shower pressure and water temp where really good. In summary, good location, good price, clean, comfortable. Amenities: None (at all)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r467801570-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>467801570</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Hope this helps</t>
+  </si>
+  <si>
+    <t>So we are staying here first time in NOLA, we pick this hotel because we didn't want to stay in NOLA and it's new. Check in was ok , lobby area really small. Rooms are new with small kitchen, which helps when you have kids. Only thing we didn't like was that the rooms where NOT stock, when my husband went down to ask front desk they explain to us that people would still things, so you have to ask for the things you need. So like the old saying "one messes it up for all" oh the beds where not that  comfortable and we needed more pillows. Other than that hotel was ok and about 20min from NOLA.  MoreShow less</t>
+  </si>
+  <si>
+    <t>So we are staying here first time in NOLA, we pick this hotel because we didn't want to stay in NOLA and it's new. Check in was ok , lobby area really small. Rooms are new with small kitchen, which helps when you have kids. Only thing we didn't like was that the rooms where NOT stock, when my husband went down to ask front desk they explain to us that people would still things, so you have to ask for the things you need. So like the old saying "one messes it up for all" oh the beds where not that  comfortable and we needed more pillows. Other than that hotel was ok and about 20min from NOLA.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r467138119-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>467138119</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Nice Enough</t>
+  </si>
+  <si>
+    <t>Arrived late to the airport; stayed here for one night before heading out.  The staff was friendly, though the check in process took a little time.  The place was pretty typical of an economical hotel catering to folks in the area for work.  It's not luxury, but definitely clean and comfortable.  The room did have a nice kitchenette with a full sized refrigerator and freezer, but lacked significant kitchen furnishings.  I would recommend for those passing through, but not for anyone in New Orleans for fun.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r466927856-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>466927856</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>New property with age old issues...</t>
+  </si>
+  <si>
+    <t>I booked this property due to my familiarity with the Value Place brand, understanding that Wood Springs is their more pricey sister property but my experience was underwhelming. I'm not sure if it was due to the property being new, a less experienced staff or a combination of the two. For the price, I expected the rooms to be bigger and better than Value Place. They weren't. The only differences are the quality of the linens and the bathroom treatments. The cleaning schedule is once a week and they don't do the floors so there will be dust constantly. All the services such as daily turnovers and trash can be purchased in addition to (a la carte) your room fee.  There was always a line due to billing/renewal problems. There was also the issue that weekly fees were going to double, even for longtime renters for the holiday season. To be fair - this place has a lot of upside considering it's proximity to the plants in Norco, New Orleans, and all the eateries. I anticipate this place getting better as the crew gets more seasoned and they iron out their systems. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I booked this property due to my familiarity with the Value Place brand, understanding that Wood Springs is their more pricey sister property but my experience was underwhelming. I'm not sure if it was due to the property being new, a less experienced staff or a combination of the two. For the price, I expected the rooms to be bigger and better than Value Place. They weren't. The only differences are the quality of the linens and the bathroom treatments. The cleaning schedule is once a week and they don't do the floors so there will be dust constantly. All the services such as daily turnovers and trash can be purchased in addition to (a la carte) your room fee.  There was always a line due to billing/renewal problems. There was also the issue that weekly fees were going to double, even for longtime renters for the holiday season. To be fair - this place has a lot of upside considering it's proximity to the plants in Norco, New Orleans, and all the eateries. I anticipate this place getting better as the crew gets more seasoned and they iron out their systems. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r445710627-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>445710627</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Good to be back in NOLA</t>
+  </si>
+  <si>
+    <t>Excellent- I moved from NOLA 10 years ago and revisit every 8-12 weeks. This location is great to get on and off Interstate. Can get to downtown in 15 minutes, as long as traffic allows. Go down Wiliams Blvd to get beignets, Popeyes, go to Loyola Avenue to get great local seafood.Yes this is a new hotel but the design is great. Room is spacious and bathroom was full size.Rachael was excellent. She went out of her way with her employees who are still learning, she is proud of the Woodspring Suites property. If I passed her at the front desk are in a hallway she smiled and asked if needed anything.Arneca checked us in and she was also professional and pleasant. Any time passed front desk and she was there she smiled and acknowledged me.I have already booked two of my future stays here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Rachael T, General Manager at WoodSpring Suites New Orleans Airport, responded to this reviewResponded December 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2016</t>
+  </si>
+  <si>
+    <t>Excellent- I moved from NOLA 10 years ago and revisit every 8-12 weeks. This location is great to get on and off Interstate. Can get to downtown in 15 minutes, as long as traffic allows. Go down Wiliams Blvd to get beignets, Popeyes, go to Loyola Avenue to get great local seafood.Yes this is a new hotel but the design is great. Room is spacious and bathroom was full size.Rachael was excellent. She went out of her way with her employees who are still learning, she is proud of the Woodspring Suites property. If I passed her at the front desk are in a hallway she smiled and asked if needed anything.Arneca checked us in and she was also professional and pleasant. Any time passed front desk and she was there she smiled and acknowledged me.I have already booked two of my future stays here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11741467-r444502761-WoodSpring_Suites_New_Orleans_Airport-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>444502761</t>
+  </si>
+  <si>
+    <t>12/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient </t>
+  </si>
+  <si>
+    <t>New hotel, close to the Airport, restaurants and shopping.  The staff is friendly and helpful.  The suites are spacious and the hotel is clean and welcoming. I will stay there again during my next visit to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachael T, General Manager at WoodSpring Suites New Orleans Airport, responded to this reviewResponded December 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2016</t>
+  </si>
+  <si>
+    <t>New hotel, close to the Airport, restaurants and shopping.  The staff is friendly and helpful.  The suites are spacious and the hotel is clean and welcoming. I will stay there again during my next visit to the area.More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -558,6 +1170,1834 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>173</v>
+      </c>
+      <c r="O23" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K24" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>173</v>
+      </c>
+      <c r="O24" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>173</v>
+      </c>
+      <c r="O25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" t="s">
+        <v>192</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>195</v>
+      </c>
+      <c r="J27" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" t="s">
+        <v>197</v>
+      </c>
+      <c r="L27" t="s">
+        <v>198</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>173</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" t="s">
+        <v>204</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>160</v>
+      </c>
+      <c r="O28" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" t="s">
+        <v>209</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>210</v>
+      </c>
+      <c r="O29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" t="s">
+        <v>215</v>
+      </c>
+      <c r="L30" t="s">
+        <v>216</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>217</v>
+      </c>
+      <c r="O30" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>218</v>
+      </c>
+      <c r="X30" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65854</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s">
+        <v>225</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O31" t="s">
+        <v>114</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>226</v>
+      </c>
+      <c r="X31" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -580,31 +3020,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">
@@ -612,31 +3052,31 @@
         <v>65854</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="E2" t="n">
         <v>70062</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
